--- a/연보/연보2/12011/손익계산서_final_전수.xlsx
+++ b/연보/연보2/12011/손익계산서_final_전수.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\연보\연보2\12011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE88DB-AA0D-49B5-B96B-CB302A796942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8100F0-3273-4575-9AFC-EAE4A9F05D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19380" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="210" windowWidth="19380" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10832,9 +10832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
